--- a/data/07.julio/listado_julio_con_pdf.xlsx
+++ b/data/07.julio/listado_julio_con_pdf.xlsx
@@ -5,20 +5,18 @@
   <sheets>
     <sheet state="visible" name="Facturas" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Facturas!$A$1:$Z$134</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="1+5XzOqmxrtZaBE3Z2bq5s9WV8+TTLTntEMruzCmUdY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="YLcqg/WqxLtK0VNOa1chVLJudiuNE/g6eFFdefrXb6U="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="456">
   <si>
     <t>NºOrden</t>
   </si>
@@ -173,6 +171,9 @@
     <t xml:space="preserve">     99/22</t>
   </si>
   <si>
+    <t>LEROY MERLIN F039-0005-957853.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">    957853</t>
   </si>
   <si>
@@ -1331,6 +1332,9 @@
     <t>TRANSCORTIDIMA URGENTE,SL MRW</t>
   </si>
   <si>
+    <t>TIPSA FACTURA 2022016100.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 22/016100</t>
   </si>
   <si>
@@ -1341,6 +1345,9 @@
   </si>
   <si>
     <t>MAAN ENVIOS, S.L.</t>
+  </si>
+  <si>
+    <t>TIPSA FACTURA 2022016101.pdf</t>
   </si>
   <si>
     <t xml:space="preserve"> 22/016101</t>
@@ -1760,7 +1767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="3">
         <v>860.0</v>
       </c>
@@ -1801,7 +1808,7 @@
         <v>380.84</v>
       </c>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="3">
         <v>861.0</v>
       </c>
@@ -1842,7 +1849,7 @@
         <v>91.69</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="3">
         <v>862.0</v>
       </c>
@@ -1883,7 +1890,7 @@
         <v>232.62</v>
       </c>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="3">
         <v>863.0</v>
       </c>
@@ -1924,7 +1931,7 @@
         <v>81.89</v>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="3">
         <v>864.0</v>
       </c>
@@ -1965,7 +1972,7 @@
         <v>50.82</v>
       </c>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="3">
         <v>865.0</v>
       </c>
@@ -2006,7 +2013,7 @@
         <v>84.92</v>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="3">
         <v>866.0</v>
       </c>
@@ -2047,7 +2054,7 @@
         <v>75.87</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="3">
         <v>867.0</v>
       </c>
@@ -2088,7 +2095,7 @@
         <v>163.71</v>
       </c>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="3">
         <v>868.0</v>
       </c>
@@ -2133,23 +2140,26 @@
       <c r="A11" s="3">
         <v>869.0</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C11" s="3">
         <v>4317.0</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I11" s="11">
         <v>39.63</v>
@@ -2167,30 +2177,30 @@
         <v>47.95</v>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="3">
         <v>870.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3">
         <v>4340.0</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I12" s="11">
         <v>330.0</v>
@@ -2208,30 +2218,30 @@
         <v>349.8</v>
       </c>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="3">
         <v>871.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3">
         <v>4972.0</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="I13" s="11">
         <v>30.58</v>
@@ -2249,30 +2259,30 @@
         <v>37.0</v>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="3">
         <v>872.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3">
         <v>3128.0</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I14" s="11">
         <v>79.0</v>
@@ -2290,21 +2300,21 @@
         <v>95.59</v>
       </c>
     </row>
-    <row r="15" ht="15.75" hidden="1" customHeight="1">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <v>873.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3">
         <v>3132.0</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>47</v>
@@ -2331,21 +2341,21 @@
         <v>427.37</v>
       </c>
     </row>
-    <row r="16" ht="15.75" hidden="1" customHeight="1">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="3">
         <v>874.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3">
         <v>3142.0</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>16</v>
@@ -2372,21 +2382,21 @@
         <v>175.72</v>
       </c>
     </row>
-    <row r="17" ht="15.75" hidden="1" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3">
         <v>875.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3">
         <v>3164.0</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>27</v>
@@ -2413,21 +2423,21 @@
         <v>797.4</v>
       </c>
     </row>
-    <row r="18" ht="15.75" hidden="1" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3">
         <v>876.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="3">
         <v>3301.0</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>41</v>
@@ -2454,30 +2464,30 @@
         <v>51.36</v>
       </c>
     </row>
-    <row r="19" ht="15.75" hidden="1" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3">
         <v>877.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="3">
         <v>3135.0</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I19" s="11">
         <v>83.2</v>
@@ -2495,21 +2505,21 @@
         <v>100.67</v>
       </c>
     </row>
-    <row r="20" ht="15.75" hidden="1" customHeight="1">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3">
         <v>878.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" s="3">
         <v>3167.0</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>36</v>
@@ -2536,21 +2546,21 @@
         <v>222.95</v>
       </c>
     </row>
-    <row r="21" ht="15.75" hidden="1" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3">
         <v>879.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3">
         <v>3168.0</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>36</v>
@@ -2577,21 +2587,21 @@
         <v>92.84</v>
       </c>
     </row>
-    <row r="22" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3">
         <v>880.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" s="3">
         <v>3204.0</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>16</v>
@@ -2618,30 +2628,30 @@
         <v>165.81</v>
       </c>
     </row>
-    <row r="23" ht="15.75" hidden="1" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3">
         <v>881.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C23" s="3">
         <v>3209.0</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I23" s="11">
         <v>289.15</v>
@@ -2659,36 +2669,36 @@
         <v>349.87</v>
       </c>
     </row>
-    <row r="24" ht="15.75" hidden="1" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3">
         <v>882.0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24" s="3">
         <v>3270.0</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I24" s="11">
         <v>22.13</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K24" s="11">
         <v>2.21</v>
@@ -2700,33 +2710,33 @@
         <v>24.34</v>
       </c>
     </row>
-    <row r="25" ht="15.75" hidden="1" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3">
         <v>883.0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C25" s="3">
         <v>3179.0</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I25" s="11">
         <v>7.64</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K25" s="11">
         <v>0.76</v>
@@ -2738,21 +2748,21 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="26" ht="15.75" hidden="1" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3">
         <v>884.0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" s="3">
         <v>3202.0</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>47</v>
@@ -2779,21 +2789,21 @@
         <v>21.78</v>
       </c>
     </row>
-    <row r="27" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="3">
         <v>885.0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3">
         <v>3203.0</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>47</v>
@@ -2820,21 +2830,21 @@
         <v>33.94</v>
       </c>
     </row>
-    <row r="28" ht="15.75" hidden="1" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3">
         <v>886.0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" s="3">
         <v>3205.0</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>36</v>
@@ -2861,21 +2871,21 @@
         <v>157.12</v>
       </c>
     </row>
-    <row r="29" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3">
         <v>887.0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" s="3">
         <v>3206.0</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>36</v>
@@ -2902,21 +2912,21 @@
         <v>40.26</v>
       </c>
     </row>
-    <row r="30" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3">
         <v>888.0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C30" s="3">
         <v>3207.0</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>36</v>
@@ -2943,21 +2953,21 @@
         <v>124.27</v>
       </c>
     </row>
-    <row r="31" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3">
         <v>889.0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" s="3">
         <v>3230.0</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>16</v>
@@ -2984,30 +2994,30 @@
         <v>748.71</v>
       </c>
     </row>
-    <row r="32" ht="15.75" hidden="1" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="3">
         <v>890.0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C32" s="3">
         <v>3302.0</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="I32" s="11">
         <v>730.74</v>
@@ -3025,30 +3035,30 @@
         <v>884.2</v>
       </c>
     </row>
-    <row r="33" ht="15.75" hidden="1" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3">
         <v>891.0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C33" s="3">
         <v>3337.0</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I33" s="11">
         <v>1616.44</v>
@@ -3066,30 +3076,30 @@
         <v>1955.89</v>
       </c>
     </row>
-    <row r="34" ht="15.75" hidden="1" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3">
         <v>892.0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C34" s="3">
         <v>3231.0</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I34" s="11">
         <v>220.9</v>
@@ -3107,33 +3117,33 @@
         <v>267.29</v>
       </c>
     </row>
-    <row r="35" ht="15.75" hidden="1" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3">
         <v>893.0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C35" s="3">
         <v>3262.0</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I35" s="11">
         <v>8.64</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K35" s="11">
         <v>0.86</v>
@@ -3145,30 +3155,30 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="36" ht="15.75" hidden="1" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3">
         <v>894.0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C36" s="3">
         <v>3290.0</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I36" s="11">
         <v>585.0</v>
@@ -3186,21 +3196,21 @@
         <v>596.7</v>
       </c>
     </row>
-    <row r="37" ht="15.75" hidden="1" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3">
         <v>895.0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C37" s="3">
         <v>3292.0</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>16</v>
@@ -3227,30 +3237,30 @@
         <v>103.31</v>
       </c>
     </row>
-    <row r="38" ht="15.75" hidden="1" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3">
         <v>896.0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C38" s="3">
         <v>3295.0</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I38" s="11">
         <v>8.8</v>
@@ -3268,30 +3278,30 @@
         <v>10.65</v>
       </c>
     </row>
-    <row r="39" ht="15.75" hidden="1" customHeight="1">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3">
         <v>897.0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C39" s="3">
         <v>3381.0</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I39" s="11">
         <v>37.0</v>
@@ -3309,30 +3319,30 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="40" ht="15.75" hidden="1" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="3">
         <v>898.0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C40" s="3">
         <v>4915.0</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I40" s="11">
         <v>79.31</v>
@@ -3350,30 +3360,30 @@
         <v>95.97</v>
       </c>
     </row>
-    <row r="41" ht="15.75" hidden="1" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3">
         <v>899.0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C41" s="3">
         <v>3291.0</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I41" s="11">
         <v>69.52</v>
@@ -3391,21 +3401,21 @@
         <v>84.12</v>
       </c>
     </row>
-    <row r="42" ht="15.75" hidden="1" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3">
         <v>900.0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C42" s="3">
         <v>3293.0</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>16</v>
@@ -3432,30 +3442,30 @@
         <v>354.53</v>
       </c>
     </row>
-    <row r="43" ht="15.75" hidden="1" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="3">
         <v>901.0</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C43" s="3">
         <v>3296.0</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I43" s="11">
         <v>24.2</v>
@@ -3473,30 +3483,30 @@
         <v>29.28</v>
       </c>
     </row>
-    <row r="44" ht="15.75" hidden="1" customHeight="1">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3">
         <v>902.0</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C44" s="3">
         <v>3297.0</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I44" s="11">
         <v>53.0</v>
@@ -3514,21 +3524,21 @@
         <v>64.13</v>
       </c>
     </row>
-    <row r="45" ht="15.75" hidden="1" customHeight="1">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3">
         <v>903.0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C45" s="3">
         <v>3299.0</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>27</v>
@@ -3555,21 +3565,21 @@
         <v>9.18</v>
       </c>
     </row>
-    <row r="46" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3">
         <v>904.0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C46" s="3">
         <v>3300.0</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>41</v>
@@ -3596,30 +3606,30 @@
         <v>165.89</v>
       </c>
     </row>
-    <row r="47" ht="15.75" hidden="1" customHeight="1">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3">
         <v>905.0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C47" s="3">
         <v>3335.0</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I47" s="11">
         <v>546.0</v>
@@ -3637,21 +3647,21 @@
         <v>660.66</v>
       </c>
     </row>
-    <row r="48" ht="15.75" hidden="1" customHeight="1">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="3">
         <v>906.0</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C48" s="3">
         <v>3294.0</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>16</v>
@@ -3678,21 +3688,21 @@
         <v>-38.67</v>
       </c>
     </row>
-    <row r="49" ht="15.75" hidden="1" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3">
         <v>907.0</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C49" s="3">
         <v>3298.0</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>22</v>
@@ -3719,30 +3729,30 @@
         <v>175.11</v>
       </c>
     </row>
-    <row r="50" ht="15.75" hidden="1" customHeight="1">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3">
         <v>908.0</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C50" s="3">
         <v>4230.0</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I50" s="11">
         <v>46.6</v>
@@ -3760,30 +3770,30 @@
         <v>56.39</v>
       </c>
     </row>
-    <row r="51" ht="15.75" hidden="1" customHeight="1">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="3">
         <v>909.0</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C51" s="3">
         <v>3357.0</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I51" s="11">
         <v>22.24</v>
@@ -3801,30 +3811,30 @@
         <v>26.91</v>
       </c>
     </row>
-    <row r="52" ht="15.75" hidden="1" customHeight="1">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="3">
         <v>910.0</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C52" s="3">
         <v>3366.0</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="I52" s="11">
         <v>84.0</v>
@@ -3842,33 +3852,33 @@
         <v>101.64</v>
       </c>
     </row>
-    <row r="53" ht="15.75" hidden="1" customHeight="1">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="3">
         <v>911.0</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C53" s="3">
         <v>4253.0</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I53" s="11">
         <v>6.27</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K53" s="11">
         <v>0.63</v>
@@ -3880,30 +3890,30 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="54" ht="15.75" hidden="1" customHeight="1">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="3">
         <v>912.0</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C54" s="3">
         <v>3370.0</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I54" s="11">
         <v>10.42</v>
@@ -3921,33 +3931,33 @@
         <v>12.61</v>
       </c>
     </row>
-    <row r="55" ht="15.75" hidden="1" customHeight="1">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="3">
         <v>913.0</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C55" s="3">
         <v>4254.0</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I55" s="11">
         <v>6.27</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K55" s="11">
         <v>0.63</v>
@@ -3959,21 +3969,21 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="56" ht="15.75" hidden="1" customHeight="1">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="3">
         <v>914.0</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C56" s="3">
         <v>3338.0</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>47</v>
@@ -4000,21 +4010,21 @@
         <v>95.03</v>
       </c>
     </row>
-    <row r="57" ht="15.75" hidden="1" customHeight="1">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="3">
         <v>915.0</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C57" s="3">
         <v>3347.0</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>16</v>
@@ -4041,30 +4051,30 @@
         <v>286.0</v>
       </c>
     </row>
-    <row r="58" ht="15.75" hidden="1" customHeight="1">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3">
         <v>916.0</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C58" s="3">
         <v>3358.0</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I58" s="11">
         <v>940.44</v>
@@ -4082,21 +4092,21 @@
         <v>1137.93</v>
       </c>
     </row>
-    <row r="59" ht="15.75" hidden="1" customHeight="1">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="3">
         <v>917.0</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C59" s="3">
         <v>3380.0</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>27</v>
@@ -4123,33 +4133,33 @@
         <v>49.57</v>
       </c>
     </row>
-    <row r="60" ht="15.75" hidden="1" customHeight="1">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3">
         <v>918.0</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C60" s="3">
         <v>4256.0</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I60" s="11">
         <v>5.27</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K60" s="11">
         <v>0.53</v>
@@ -4161,27 +4171,27 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="61" ht="15.75" hidden="1" customHeight="1">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3">
         <v>919.0</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C61" s="3">
         <v>4323.0</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I61" s="11">
         <v>72.21</v>
@@ -4199,27 +4209,27 @@
         <v>87.37</v>
       </c>
     </row>
-    <row r="62" ht="15.75" hidden="1" customHeight="1">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="3">
         <v>920.0</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C62" s="3">
         <v>4580.0</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I62" s="11">
         <v>63.87</v>
@@ -4237,30 +4247,30 @@
         <v>77.28</v>
       </c>
     </row>
-    <row r="63" ht="15.75" hidden="1" customHeight="1">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3">
         <v>921.0</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C63" s="3">
         <v>3374.0</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I63" s="11">
         <v>11739.47</v>
@@ -4278,30 +4288,30 @@
         <v>14204.76</v>
       </c>
     </row>
-    <row r="64" ht="15.75" hidden="1" customHeight="1">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="3">
         <v>922.0</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C64" s="3">
         <v>4309.0</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I64" s="11">
         <v>49.34</v>
@@ -4319,30 +4329,30 @@
         <v>59.7</v>
       </c>
     </row>
-    <row r="65" ht="15.75" hidden="1" customHeight="1">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="3">
         <v>923.0</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C65" s="3">
         <v>4314.0</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I65" s="11">
         <v>152.84</v>
@@ -4360,30 +4370,30 @@
         <v>184.95</v>
       </c>
     </row>
-    <row r="66" ht="15.75" hidden="1" customHeight="1">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="3">
         <v>924.0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C66" s="3">
         <v>4318.0</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G66" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I66" s="11">
         <v>126.07</v>
@@ -4401,21 +4411,21 @@
         <v>152.55</v>
       </c>
     </row>
-    <row r="67" ht="15.75" hidden="1" customHeight="1">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="3">
         <v>925.0</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C67" s="3">
         <v>3348.0</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>16</v>
@@ -4442,30 +4452,30 @@
         <v>188.42</v>
       </c>
     </row>
-    <row r="68" ht="15.75" hidden="1" customHeight="1">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="3">
         <v>926.0</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C68" s="3">
         <v>3359.0</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I68" s="11">
         <v>325.93</v>
@@ -4483,30 +4493,30 @@
         <v>394.38</v>
       </c>
     </row>
-    <row r="69" ht="15.75" hidden="1" customHeight="1">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="3">
         <v>927.0</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C69" s="3">
         <v>4316.0</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G69" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I69" s="11">
         <v>-21.48</v>
@@ -4524,21 +4534,21 @@
         <v>-25.98</v>
       </c>
     </row>
-    <row r="70" ht="15.75" hidden="1" customHeight="1">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="3">
         <v>928.0</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C70" s="3">
         <v>3339.0</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>47</v>
@@ -4565,21 +4575,21 @@
         <v>120.77</v>
       </c>
     </row>
-    <row r="71" ht="15.75" hidden="1" customHeight="1">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="3">
         <v>929.0</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C71" s="3">
         <v>3349.0</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>16</v>
@@ -4606,21 +4616,21 @@
         <v>283.56</v>
       </c>
     </row>
-    <row r="72" ht="15.75" hidden="1" customHeight="1">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="3">
         <v>930.0</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C72" s="3">
         <v>3378.0</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>27</v>
@@ -4647,21 +4657,21 @@
         <v>177.89</v>
       </c>
     </row>
-    <row r="73" ht="15.75" hidden="1" customHeight="1">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="3">
         <v>931.0</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C73" s="3">
         <v>3382.0</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>36</v>
@@ -4688,30 +4698,30 @@
         <v>156.14</v>
       </c>
     </row>
-    <row r="74" ht="15.75" hidden="1" customHeight="1">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="3">
         <v>932.0</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C74" s="3">
         <v>4231.0</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G74" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="I74" s="11">
         <v>15.96</v>
@@ -4729,30 +4739,30 @@
         <v>19.31</v>
       </c>
     </row>
-    <row r="75" ht="15.75" hidden="1" customHeight="1">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="3">
         <v>933.0</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C75" s="3">
         <v>4313.0</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G75" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I75" s="11">
         <v>41.3</v>
@@ -4770,21 +4780,21 @@
         <v>49.98</v>
       </c>
     </row>
-    <row r="76" ht="15.75" hidden="1" customHeight="1">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="3">
         <v>934.0</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C76" s="3">
         <v>3340.0</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>47</v>
@@ -4811,21 +4821,21 @@
         <v>228.93</v>
       </c>
     </row>
-    <row r="77" ht="15.75" hidden="1" customHeight="1">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="3">
         <v>935.0</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C77" s="3">
         <v>3341.0</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>47</v>
@@ -4852,30 +4862,30 @@
         <v>136.1</v>
       </c>
     </row>
-    <row r="78" ht="15.75" hidden="1" customHeight="1">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="3">
         <v>936.0</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C78" s="3">
         <v>3345.0</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I78" s="11">
         <v>390.0</v>
@@ -4893,21 +4903,21 @@
         <v>471.9</v>
       </c>
     </row>
-    <row r="79" ht="15.75" hidden="1" customHeight="1">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="3">
         <v>937.0</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C79" s="3">
         <v>3350.0</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>16</v>
@@ -4934,30 +4944,30 @@
         <v>83.64</v>
       </c>
     </row>
-    <row r="80" ht="15.75" hidden="1" customHeight="1">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="3">
         <v>938.0</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C80" s="3">
         <v>3356.0</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I80" s="11">
         <v>109.16</v>
@@ -4975,30 +4985,30 @@
         <v>132.08</v>
       </c>
     </row>
-    <row r="81" ht="15.75" hidden="1" customHeight="1">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="3">
         <v>939.0</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C81" s="3">
         <v>3360.0</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I81" s="11">
         <v>1380.0</v>
@@ -5016,21 +5026,21 @@
         <v>1669.8</v>
       </c>
     </row>
-    <row r="82" ht="15.75" hidden="1" customHeight="1">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="3">
         <v>940.0</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C82" s="3">
         <v>3351.0</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>16</v>
@@ -5057,30 +5067,30 @@
         <v>205.06</v>
       </c>
     </row>
-    <row r="83" ht="15.75" hidden="1" customHeight="1">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="3">
         <v>941.0</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C83" s="3">
         <v>3364.0</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G83" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="I83" s="11">
         <v>51.87</v>
@@ -5098,30 +5108,30 @@
         <v>62.76</v>
       </c>
     </row>
-    <row r="84" ht="15.75" hidden="1" customHeight="1">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="3">
         <v>942.0</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C84" s="3">
         <v>4258.0</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I84" s="11">
         <v>61.17</v>
@@ -5139,30 +5149,30 @@
         <v>74.01</v>
       </c>
     </row>
-    <row r="85" ht="15.75" hidden="1" customHeight="1">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="3">
         <v>943.0</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C85" s="3">
         <v>4306.0</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I85" s="11">
         <v>885.5</v>
@@ -5180,30 +5190,30 @@
         <v>1071.46</v>
       </c>
     </row>
-    <row r="86" ht="15.75" hidden="1" customHeight="1">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="3">
         <v>944.0</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C86" s="3">
         <v>4917.0</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I86" s="11">
         <v>27.94</v>
@@ -5221,21 +5231,21 @@
         <v>33.81</v>
       </c>
     </row>
-    <row r="87" ht="15.75" hidden="1" customHeight="1">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="3">
         <v>945.0</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C87" s="3">
         <v>3342.0</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>47</v>
@@ -5262,21 +5272,21 @@
         <v>33.28</v>
       </c>
     </row>
-    <row r="88" ht="15.75" hidden="1" customHeight="1">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="3">
         <v>946.0</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C88" s="3">
         <v>3384.0</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>41</v>
@@ -5303,30 +5313,30 @@
         <v>38.51</v>
       </c>
     </row>
-    <row r="89" ht="15.75" hidden="1" customHeight="1">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="3">
         <v>947.0</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C89" s="3">
         <v>3367.0</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G89" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H89" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="I89" s="11">
         <v>5.35</v>
@@ -5344,30 +5354,30 @@
         <v>6.47</v>
       </c>
     </row>
-    <row r="90" ht="15.75" hidden="1" customHeight="1">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="3">
         <v>948.0</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C90" s="3">
         <v>3368.0</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G90" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H90" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="I90" s="11">
         <v>3.5</v>
@@ -5385,30 +5395,30 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="91" ht="15.75" hidden="1" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="3">
         <v>949.0</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C91" s="3">
         <v>4293.0</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I91" s="11">
         <v>47.39</v>
@@ -5426,30 +5436,30 @@
         <v>57.34</v>
       </c>
     </row>
-    <row r="92" ht="15.75" hidden="1" customHeight="1">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="3">
         <v>950.0</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C92" s="3">
         <v>3388.0</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G92" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="I92" s="11">
         <v>59.99</v>
@@ -5467,30 +5477,30 @@
         <v>72.59</v>
       </c>
     </row>
-    <row r="93" ht="15.75" hidden="1" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="3">
         <v>951.0</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C93" s="3">
         <v>3332.0</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G93" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H93" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="I93" s="11">
         <v>664.31</v>
@@ -5508,30 +5518,30 @@
         <v>803.82</v>
       </c>
     </row>
-    <row r="94" ht="15.75" hidden="1" customHeight="1">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="3">
         <v>952.0</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C94" s="3">
         <v>3365.0</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I94" s="11">
         <v>734.0</v>
@@ -5549,21 +5559,21 @@
         <v>888.14</v>
       </c>
     </row>
-    <row r="95" ht="15.75" hidden="1" customHeight="1">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="3">
         <v>953.0</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C95" s="3">
         <v>3373.0</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>22</v>
@@ -5590,21 +5600,21 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="96" ht="15.75" hidden="1" customHeight="1">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="3">
         <v>954.0</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C96" s="3">
         <v>3383.0</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>36</v>
@@ -5631,30 +5641,30 @@
         <v>52.22</v>
       </c>
     </row>
-    <row r="97" ht="15.75" hidden="1" customHeight="1">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="3">
         <v>955.0</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C97" s="3">
         <v>4261.0</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I97" s="11">
         <v>64.31</v>
@@ -5672,33 +5682,33 @@
         <v>77.82</v>
       </c>
     </row>
-    <row r="98" ht="15.75" hidden="1" customHeight="1">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="3">
         <v>956.0</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C98" s="3">
         <v>4263.0</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I98" s="11">
         <v>10.91</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K98" s="11">
         <v>1.09</v>
@@ -5710,30 +5720,30 @@
         <v>12.0</v>
       </c>
     </row>
-    <row r="99" ht="15.75" hidden="1" customHeight="1">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="3">
         <v>957.0</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C99" s="3">
         <v>3333.0</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G99" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H99" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="I99" s="11">
         <v>75.95</v>
@@ -5751,30 +5761,30 @@
         <v>91.9</v>
       </c>
     </row>
-    <row r="100" ht="15.75" hidden="1" customHeight="1">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="3">
         <v>958.0</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C100" s="3">
         <v>3334.0</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G100" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="I100" s="11">
         <v>34.2</v>
@@ -5792,21 +5802,21 @@
         <v>41.38</v>
       </c>
     </row>
-    <row r="101" ht="15.75" hidden="1" customHeight="1">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="3">
         <v>959.0</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C101" s="3">
         <v>3343.0</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>47</v>
@@ -5833,21 +5843,21 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="102" ht="15.75" hidden="1" customHeight="1">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="3">
         <v>960.0</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C102" s="3">
         <v>3352.0</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>16</v>
@@ -5874,21 +5884,21 @@
         <v>161.74</v>
       </c>
     </row>
-    <row r="103" ht="15.75" hidden="1" customHeight="1">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="3">
         <v>961.0</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C103" s="3">
         <v>3385.0</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>41</v>
@@ -5915,30 +5925,30 @@
         <v>51.84</v>
       </c>
     </row>
-    <row r="104" ht="15.75" hidden="1" customHeight="1">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="3">
         <v>962.0</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C104" s="3">
         <v>3386.0</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I104" s="11">
         <v>53.0</v>
@@ -5956,33 +5966,33 @@
         <v>64.13</v>
       </c>
     </row>
-    <row r="105" ht="15.75" hidden="1" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="3">
         <v>963.0</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C105" s="3">
         <v>4264.0</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I105" s="11">
         <v>13.45</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K105" s="11">
         <v>1.35</v>
@@ -5994,30 +6004,30 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="106" ht="15.75" hidden="1" customHeight="1">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="3">
         <v>964.0</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C106" s="3">
         <v>4319.0</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G106" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I106" s="11">
         <v>40.5</v>
@@ -6035,30 +6045,30 @@
         <v>49.0</v>
       </c>
     </row>
-    <row r="107" ht="15.75" hidden="1" customHeight="1">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="3">
         <v>965.0</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C107" s="3">
         <v>4321.0</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G107" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H107" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I107" s="11">
         <v>-20.65</v>
@@ -6076,30 +6086,30 @@
         <v>-24.99</v>
       </c>
     </row>
-    <row r="108" ht="15.75" hidden="1" customHeight="1">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="3">
         <v>966.0</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C108" s="3">
         <v>4617.0</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G108" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="H108" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="I108" s="11">
         <v>6.6</v>
@@ -6117,30 +6127,30 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="109" ht="15.75" hidden="1" customHeight="1">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="3">
         <v>967.0</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C109" s="3">
         <v>4616.0</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G109" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H109" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="I109" s="11">
         <v>56.52</v>
@@ -6158,30 +6168,30 @@
         <v>56.52</v>
       </c>
     </row>
-    <row r="110" ht="15.75" hidden="1" customHeight="1">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="3">
         <v>968.0</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C110" s="3">
         <v>3336.0</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I110" s="11">
         <v>678.5</v>
@@ -6199,21 +6209,21 @@
         <v>820.99</v>
       </c>
     </row>
-    <row r="111" ht="15.75" hidden="1" customHeight="1">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="3">
         <v>969.0</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C111" s="3">
         <v>3353.0</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>16</v>
@@ -6240,30 +6250,30 @@
         <v>210.76</v>
       </c>
     </row>
-    <row r="112" ht="15.75" hidden="1" customHeight="1">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="3">
         <v>970.0</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C112" s="3">
         <v>3354.0</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I112" s="11">
         <v>79.3</v>
@@ -6281,30 +6291,30 @@
         <v>95.95</v>
       </c>
     </row>
-    <row r="113" ht="15.75" hidden="1" customHeight="1">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="3">
         <v>971.0</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C113" s="3">
         <v>3361.0</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G113" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H113" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="I113" s="11">
         <v>7567.56</v>
@@ -6322,30 +6332,30 @@
         <v>7567.56</v>
       </c>
     </row>
-    <row r="114" ht="15.75" hidden="1" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="3">
         <v>972.0</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C114" s="3">
         <v>3363.0</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G114" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H114" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="I114" s="11">
         <v>64.15</v>
@@ -6363,30 +6373,30 @@
         <v>64.15</v>
       </c>
     </row>
-    <row r="115" ht="15.75" hidden="1" customHeight="1">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="3">
         <v>973.0</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C115" s="3">
         <v>3371.0</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I115" s="11">
         <v>607.7</v>
@@ -6404,33 +6414,33 @@
         <v>735.32</v>
       </c>
     </row>
-    <row r="116" ht="15.75" hidden="1" customHeight="1">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="3">
         <v>974.0</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C116" s="3">
         <v>4265.0</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I116" s="11">
         <v>13.54</v>
       </c>
       <c r="J116" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K116" s="11">
         <v>1.36</v>
@@ -6442,36 +6452,36 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="117" ht="15.75" hidden="1" customHeight="1">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="3">
         <v>975.0</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C117" s="3">
         <v>4292.0</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I117" s="11">
         <v>15.27</v>
       </c>
       <c r="J117" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K117" s="11">
         <v>1.53</v>
@@ -6483,30 +6493,30 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="118" ht="15.75" hidden="1" customHeight="1">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="3">
         <v>976.0</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C118" s="3">
         <v>4320.0</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G118" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H118" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I118" s="11">
         <v>97.29</v>
@@ -6524,30 +6534,30 @@
         <v>117.72</v>
       </c>
     </row>
-    <row r="119" ht="15.75" hidden="1" customHeight="1">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="3">
         <v>977.0</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C119" s="3">
         <v>4326.0</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I119" s="11">
         <v>90.08</v>
@@ -6565,30 +6575,30 @@
         <v>109.0</v>
       </c>
     </row>
-    <row r="120" ht="15.75" hidden="1" customHeight="1">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="3">
         <v>978.0</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C120" s="3">
         <v>4618.0</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G120" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="H120" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="I120" s="11">
         <v>6.6</v>
@@ -6606,30 +6616,30 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="121" ht="15.75" hidden="1" customHeight="1">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="3">
         <v>979.0</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C121" s="3">
         <v>3355.0</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I121" s="11">
         <v>492.4</v>
@@ -6647,30 +6657,30 @@
         <v>595.8</v>
       </c>
     </row>
-    <row r="122" ht="15.75" hidden="1" customHeight="1">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="3">
         <v>980.0</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C122" s="3">
         <v>3369.0</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G122" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H122" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="I122" s="11">
         <v>9.88</v>
@@ -6688,30 +6698,30 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="123" ht="15.75" hidden="1" customHeight="1">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="3">
         <v>981.0</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C123" s="3">
         <v>3375.0</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I123" s="11">
         <v>1862.5</v>
@@ -6729,21 +6739,21 @@
         <v>2253.63</v>
       </c>
     </row>
-    <row r="124" ht="15.75" hidden="1" customHeight="1">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="3">
         <v>982.0</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C124" s="3">
         <v>3379.0</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>27</v>
@@ -6770,30 +6780,30 @@
         <v>168.64</v>
       </c>
     </row>
-    <row r="125" ht="15.75" hidden="1" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="3">
         <v>983.0</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C125" s="3">
         <v>3387.0</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G125" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H125" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="I125" s="11">
         <v>606.43</v>
@@ -6811,30 +6821,30 @@
         <v>606.43</v>
       </c>
     </row>
-    <row r="126" ht="15.75" hidden="1" customHeight="1">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="3">
         <v>984.0</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C126" s="3">
         <v>3389.0</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G126" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H126" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="I126" s="11">
         <v>1212.4</v>
@@ -6852,30 +6862,30 @@
         <v>1467.0</v>
       </c>
     </row>
-    <row r="127" ht="15.75" hidden="1" customHeight="1">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="3">
         <v>985.0</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C127" s="3">
         <v>4127.0</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I127" s="11">
         <v>4543.94</v>
@@ -6893,30 +6903,30 @@
         <v>5498.17</v>
       </c>
     </row>
-    <row r="128" ht="15.75" hidden="1" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="3">
         <v>986.0</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C128" s="3">
         <v>3346.0</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G128" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="H128" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="I128" s="11">
         <v>62.4</v>
@@ -6934,30 +6944,30 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="129" ht="15.75" hidden="1" customHeight="1">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="3">
         <v>987.0</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C129" s="3">
         <v>3362.0</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I129" s="11">
         <v>55.19</v>
@@ -6979,23 +6989,26 @@
       <c r="A130" s="3">
         <v>988.0</v>
       </c>
+      <c r="B130" s="4" t="s">
+        <v>438</v>
+      </c>
       <c r="C130" s="3">
         <v>3376.0</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I130" s="11">
         <v>701.18</v>
@@ -7017,29 +7030,32 @@
       <c r="A131" s="3">
         <v>989.0</v>
       </c>
+      <c r="B131" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="C131" s="3">
         <v>3377.0</v>
       </c>
       <c r="D131" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G131" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E131" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="H131" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I131" s="11">
         <v>711.21</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K131" s="11">
         <v>0.0</v>
@@ -7051,30 +7067,30 @@
         <v>711.21</v>
       </c>
     </row>
-    <row r="132" ht="15.75" hidden="1" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="3">
         <v>990.0</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C132" s="3">
         <v>3659.0</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I132" s="11">
         <v>11.61</v>
@@ -7092,30 +7108,30 @@
         <v>14.05</v>
       </c>
     </row>
-    <row r="133" ht="15.75" hidden="1" customHeight="1">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="3">
         <v>991.0</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C133" s="3">
         <v>3660.0</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I133" s="11">
         <v>1.44</v>
@@ -7133,30 +7149,30 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="134" ht="15.75" hidden="1" customHeight="1">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="3">
         <v>992.0</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C134" s="3">
         <v>4165.0</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="I134" s="11">
         <v>580.65</v>
@@ -8028,11 +8044,6 @@
     <row r="986" ht="15.75" customHeight="1"/>
     <row r="987" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$Z$134">
-    <filterColumn colId="1">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
